--- a/rcads/data/xls/04_EntityGroups.xlsx
+++ b/rcads/data/xls/04_EntityGroups.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="04_EntityGroups"/>
+    <sheet sheetId="1" r:id="rId1" name="_04_EntityGroups"/>
   </sheets>
+  <definedNames>
+    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$81</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,32 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,36 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,80 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,187 +343,823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="19.1875"/>
-    <col customWidth="true" min="2" max="2" width="58.30078125"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>EntityMappingID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>EntityListName</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-ES</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-CG-EN-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-CG-EN-3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-DE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-FR-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>[2] RCADS-25-Y-EN, RCADS-47-Y-DE</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>MTT-35-CG-EN-1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>MTT-35-CG-EN-2</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>MTT-35-CG-EN-3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-ES</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>PHQ-9-A-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-Y-EN-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-Y-EN-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-Y-ES-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>MTT-35-CG-ES-1</t>
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MTT-35-Y-EN-1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>MTT-35-Y-EN-2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MTT-35-Y-ES-1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>PHQ-9-A-EN</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-25-Y-DE</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-25-Y-EN</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-47-CG-EN</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-47-CG-ES</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-47-Y-EN</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-47-Y-ES</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>RCADS-47-Y-FR</t>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-35-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-35-Y-SW</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-EL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-DA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-AR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-DE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-EN, RCADS-47-Y-DE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-DE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-DE, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-DE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-DA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-25-Y-EN, RCADS-47-Y-DA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-25-CG-EN, RCADS-47-CG-DA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-DA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-DA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-25-CG-EN, RCADS-47-CG-ES</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-ES</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-ES, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-ES</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-FR-1, RCADS-47-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-FR-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-ET</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-ET</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-EL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-LT</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-SR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-SR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-PT</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-NO-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-NO-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-NO-1 and RCADS-47-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-NO-1 and RCADS-47-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-NO-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-NO-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-TR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-TR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-JA-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-JA-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-JA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-JA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-JA-1, RCADS-47-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-JA-1, RCADS-47-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-JA-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-JA-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-JA-2, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-JA-2, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-SL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-SL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-FI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-ZH-HANS-1, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-ZH-HANS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-ZH-HANS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-ZH-HANS, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-ZH-HANS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0">
+        <v>78</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-PL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0">
+        <v>79</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-PL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0">
+        <v>80</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-PL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0">
+        <v>81</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-PL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0">
+        <v>82</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-PL, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0">
+        <v>83</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-PL, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0">
+        <v>84</v>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-Y-NO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0">
+        <v>85</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>MTT-35-CG-NO</t>
         </is>
       </c>
     </row>

--- a/rcads/data/xls/04_EntityGroups.xlsx
+++ b/rcads/data/xls/04_EntityGroups.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_04_EntityGroups"/>
   </sheets>
   <definedNames>
-    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$81</definedName>
+    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$128</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1163,6 +1163,476 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0">
+        <v>86</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-SV-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0">
+        <v>87</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-SV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0">
+        <v>88</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-SV-1 and RCADS-47-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0">
+        <v>89</v>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-SV-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0">
+        <v>90</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-ZH-HANS-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0">
+        <v>91</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-IS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0">
+        <v>92</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-IS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0">
+        <v>93</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-HU</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0">
+        <v>94</v>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-HU</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0">
+        <v>95</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-HI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0">
+        <v>96</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-HI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0">
+        <v>97</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-HI, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0">
+        <v>98</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-HI, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0">
+        <v>99</v>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-HI-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0">
+        <v>100</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-HI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0">
+        <v>101</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-PA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0">
+        <v>102</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-PA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0">
+        <v>103</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-PA, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-PA, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0">
+        <v>105</v>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-PA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0">
+        <v>106</v>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-PA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0">
+        <v>107</v>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-ET</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0">
+        <v>108</v>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-ET</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0">
+        <v>109</v>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-ET, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0">
+        <v>110</v>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-ET, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0">
+        <v>111</v>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-EL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0">
+        <v>112</v>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-EL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0">
+        <v>113</v>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-EL, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0">
+        <v>114</v>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-EL, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0">
+        <v>115</v>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0">
+        <v>116</v>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-FI</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0">
+        <v>117</v>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-FI, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0">
+        <v>118</v>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-FI, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0">
+        <v>119</v>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-HU</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0">
+        <v>120</v>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-HU</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0">
+        <v>121</v>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-HU, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0">
+        <v>122</v>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-HU, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0">
+        <v>123</v>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-IS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0">
+        <v>124</v>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-IS</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0">
+        <v>125</v>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-IS, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0">
+        <v>126</v>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-IS, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0">
+        <v>127</v>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-SL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0">
+        <v>128</v>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-SL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0">
+        <v>129</v>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-SL, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0">
+        <v>130</v>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-SL, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0">
+        <v>131</v>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-KO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0">
+        <v>132</v>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-KO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/04_EntityGroups.xlsx
+++ b/rcads/data/xls/04_EntityGroups.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_04_EntityGroups"/>
   </sheets>
   <definedNames>
-    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$128</definedName>
+    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$143</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-Y-FR-1</t>
+          <t>RCADS-47-Y-FR-FR-1</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>[2] RCADS-47-Y-FR-1, RCADS-47-Y-EN</t>
+          <t>[2] RCADS-47-Y-FR-FR-1, RCADS-47-Y-EN</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>RCADS-47-Y-FR-2</t>
+          <t>RCADS-47-Y-FR-FR-2</t>
         </is>
       </c>
     </row>
@@ -1630,6 +1630,156 @@
       <c r="B128" s="0" t="inlineStr">
         <is>
           <t>RCADS-47-CG-KO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0">
+        <v>133</v>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-FR-FR-1, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0">
+        <v>134</v>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FR-FR-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>135</v>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-FR-FR-1, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>136</v>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FR-CA-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>137</v>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-FR-FR-2, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>138</v>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-FR-FR-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>139</v>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-FR-FR-1, RCADS-47-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>140</v>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FR-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>141</v>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>[3] RCADS-47-Y-FR-FR-1, RCADS-47-CG-FR-1, RCADS-47-CG-FR-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>142</v>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FR-3</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>143</v>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-FR-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>144</v>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-KO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>145</v>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-KO</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>146</v>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-KO, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>147</v>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-KO, RCADS-25-CG-EN</t>
         </is>
       </c>
     </row>

--- a/rcads/data/xls/04_EntityGroups.xlsx
+++ b/rcads/data/xls/04_EntityGroups.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_04_EntityGroups"/>
   </sheets>
   <definedNames>
-    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$143</definedName>
+    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$149</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1783,6 +1783,66 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>148</v>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-SR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>149</v>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-SR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>150</v>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-SR, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>151</v>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-SR, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>152</v>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-MN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>153</v>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-MN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/04_EntityGroups.xlsx
+++ b/rcads/data/xls/04_EntityGroups.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_04_EntityGroups"/>
   </sheets>
   <definedNames>
-    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$149</definedName>
+    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$157</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1843,6 +1843,86 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>154</v>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-AR, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>155</v>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-AR</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>156</v>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-Y-IT</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>157</v>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-47-CG-IT</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0">
+        <v>158</v>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-MN, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0">
+        <v>159</v>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-MN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0">
+        <v>160</v>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-MN, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0">
+        <v>161</v>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-MN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/04_EntityGroups.xlsx
+++ b/rcads/data/xls/04_EntityGroups.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_04_EntityGroups"/>
   </sheets>
   <definedNames>
-    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$157</definedName>
+    <definedName name="_04_EntityGroups">'_04_EntityGroups'!$A$1:$B$161</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1923,6 +1923,46 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0">
+        <v>162</v>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-Y-SV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0">
+        <v>163</v>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>RCADS-25-CG-SV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0">
+        <v>164</v>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-Y-SV, RCADS-25-Y-EN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0">
+        <v>165</v>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>[2] RCADS-47-CG-SV-1, RCADS-25-CG-EN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
